--- a/data/trans_dic/P14B34-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P14B34-Edad-trans_dic.xlsx
@@ -726,10 +726,10 @@
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.007233615973136751</v>
+        <v>0.007840818624285194</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01199170021759881</v>
+        <v>0.01104559457939218</v>
       </c>
     </row>
     <row r="13">
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.001574086889333374</v>
+        <v>0.001086280343753987</v>
       </c>
     </row>
     <row r="15">
@@ -782,10 +782,10 @@
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.01121485061633385</v>
+        <v>0.0111222348066541</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01209742914557023</v>
+        <v>0.01175943368517502</v>
       </c>
     </row>
     <row r="16">
@@ -821,13 +821,13 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.008784988582378037</v>
+        <v>0.009163875275311149</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.004413687634484431</v>
+        <v>0.00455756893201485</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.003657895278166239</v>
+        <v>0.003562718200325087</v>
       </c>
     </row>
     <row r="18">
@@ -839,13 +839,13 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.03499402513309997</v>
+        <v>0.03608783611347053</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02589900496917875</v>
+        <v>0.02805511584589055</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01838353498474833</v>
+        <v>0.01702316267295927</v>
       </c>
     </row>
     <row r="19">
@@ -869,7 +869,7 @@
         <v>0.03535316543796469</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.02335854180488303</v>
+        <v>0.02335854180488304</v>
       </c>
     </row>
     <row r="20">
@@ -881,13 +881,13 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.0502354150700337</v>
+        <v>0.05287197748297009</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01941678920004313</v>
+        <v>0.01748229618355766</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01336455061459917</v>
+        <v>0.01238164883662838</v>
       </c>
     </row>
     <row r="21">
@@ -899,13 +899,13 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.115253479716168</v>
+        <v>0.1141482377030343</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06675672922359113</v>
+        <v>0.06225548028848889</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03842494916832515</v>
+        <v>0.03760093004695868</v>
       </c>
     </row>
     <row r="22">
@@ -941,13 +941,13 @@
       </c>
       <c r="C23" s="5" t="inlineStr"/>
       <c r="D23" s="5" t="n">
-        <v>0.06534996831846324</v>
+        <v>0.06180536145320946</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0426567826477334</v>
+        <v>0.04230738697558602</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03748401510173668</v>
+        <v>0.03776936894199992</v>
       </c>
     </row>
     <row r="24">
@@ -959,13 +959,13 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.147473658889093</v>
+        <v>0.1497857481679555</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.09604668858325235</v>
+        <v>0.09861365222787467</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.07845240821297191</v>
+        <v>0.08036780657278493</v>
       </c>
     </row>
     <row r="25">
@@ -1001,13 +1001,13 @@
       </c>
       <c r="C26" s="5" t="inlineStr"/>
       <c r="D26" s="5" t="n">
-        <v>0.01301033410330223</v>
+        <v>0.01270930758254853</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.00795663170362374</v>
+        <v>0.008124139005835728</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.007455330612547365</v>
+        <v>0.007384729388097846</v>
       </c>
     </row>
     <row r="27">
@@ -1019,13 +1019,13 @@
       </c>
       <c r="C27" s="5" t="inlineStr"/>
       <c r="D27" s="5" t="n">
-        <v>0.02171424533858039</v>
+        <v>0.02250756487543995</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01504343890446197</v>
+        <v>0.01500994374347743</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.01342369776924862</v>
+        <v>0.01338683341780855</v>
       </c>
     </row>
     <row r="28">
@@ -1331,10 +1331,10 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>4840</v>
+        <v>5246</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>7414</v>
+        <v>6829</v>
       </c>
     </row>
     <row r="16">
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1093</v>
+        <v>754</v>
       </c>
     </row>
     <row r="19">
@@ -1407,10 +1407,10 @@
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="n">
-        <v>7245</v>
+        <v>7185</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>8398</v>
+        <v>8164</v>
       </c>
     </row>
     <row r="20">
@@ -1466,13 +1466,13 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>3773</v>
+        <v>3935</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2109</v>
+        <v>2178</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2217</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="23">
@@ -1484,13 +1484,13 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>15027</v>
+        <v>15497</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>12378</v>
+        <v>13408</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>11140</v>
+        <v>10315</v>
       </c>
     </row>
     <row r="24">
@@ -1546,13 +1546,13 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>15562</v>
+        <v>16379</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>6492</v>
+        <v>5845</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>5406</v>
+        <v>5008</v>
       </c>
     </row>
     <row r="27">
@@ -1564,13 +1564,13 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>35704</v>
+        <v>35362</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>22319</v>
+        <v>20814</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>15542</v>
+        <v>15209</v>
       </c>
     </row>
     <row r="28">
@@ -1626,13 +1626,13 @@
       </c>
       <c r="C30" s="6" t="inlineStr"/>
       <c r="D30" s="6" t="n">
-        <v>16116</v>
+        <v>15242</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>10963</v>
+        <v>10873</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>11594</v>
+        <v>11683</v>
       </c>
     </row>
     <row r="31">
@@ -1644,13 +1644,13 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>36368</v>
+        <v>36939</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>24684</v>
+        <v>25344</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>24266</v>
+        <v>24859</v>
       </c>
     </row>
     <row r="32">
@@ -1706,13 +1706,13 @@
       </c>
       <c r="C34" s="6" t="inlineStr"/>
       <c r="D34" s="6" t="n">
-        <v>44541</v>
+        <v>43511</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>27008</v>
+        <v>27576</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>26179</v>
+        <v>25931</v>
       </c>
     </row>
     <row r="35">
@@ -1724,13 +1724,13 @@
       </c>
       <c r="C35" s="6" t="inlineStr"/>
       <c r="D35" s="6" t="n">
-        <v>74340</v>
+        <v>77055</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>51063</v>
+        <v>50949</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>47136</v>
+        <v>47006</v>
       </c>
     </row>
     <row r="36">
